--- a/examples/excels/complex_test.xlsx
+++ b/examples/excels/complex_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\gopath\src\table-export\examples\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4068F245-999A-4752-8661-746BB6CC1D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB806F-C304-44B3-8897-FE772F4F3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27555" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37440" yWindow="5955" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +134,10 @@
   <si>
     <t>请问"阿松
 zxc很卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试\qq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,10 +492,10 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -512,10 +512,10 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -526,16 +526,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>120.22</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>45</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -609,7 +609,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>23</v>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>51</v>

--- a/examples/excels/complex_test.xlsx
+++ b/examples/excels/complex_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\gopath\src\table-export\examples\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\go\table-export\examples\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB806F-C304-44B3-8897-FE772F4F3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73197386-EFAF-4602-A55D-7BA7A51AB1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37440" yWindow="5955" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4_53</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +134,26 @@
   </si>
   <si>
     <t>测试\qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=jkl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_67</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,19 +482,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -495,10 +511,10 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -515,10 +531,10 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -532,13 +548,13 @@
         <v>120.22</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -552,7 +568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -563,25 +579,27 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -589,13 +607,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -609,34 +627,54 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>51</v>
       </c>
     </row>
